--- a/REGULAR/CEO/SUMAGUI, MARISSA.xlsx
+++ b/REGULAR/CEO/SUMAGUI, MARISSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBF689-6C06-4583-B917-96E8CF571167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="348">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1043,12 +1042,48 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/11,13,27/2023</t>
+  </si>
+  <si>
+    <t>UT(1-1-46)</t>
+  </si>
+  <si>
+    <t>11/3,21,28/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-7)</t>
+  </si>
+  <si>
+    <t>10/11,31/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-11)</t>
+  </si>
+  <si>
+    <t>8/9,22/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-14)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/13,17,20,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1279,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,6 +1466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1918,7 +1956,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1999,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2063,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2123,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2189,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2252,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2350,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2409,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2474,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2517,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2592,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2778,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2844,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2902,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2968,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +3024,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3099,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3142,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3208,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3264,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3362,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3425,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3474,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3453,26 +3491,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K567" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K567" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K573"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3484,13 +3522,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3499,14 +3537,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3810,7 +3848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3820,7 +3858,7 @@
       <selection activeCell="Z721" sqref="Z721"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3828,95 +3866,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K567"/>
+  <dimension ref="A2:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A442" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A442" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="A445" sqref="A445"/>
+      <selection pane="bottomLeft" activeCell="E453" sqref="E453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3924,7 +3962,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3937,24 +3975,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3998,7 +4036,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>14.205999999999847</v>
+        <v>1.3869999999998299</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4008,12 +4046,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>251.91700000000003</v>
+        <v>256.91700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
@@ -4035,7 +4073,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35219</v>
       </c>
@@ -4053,7 +4091,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35275</v>
       </c>
@@ -4073,7 +4111,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35306</v>
       </c>
@@ -4093,7 +4131,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35337</v>
       </c>
@@ -4113,7 +4151,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35367</v>
       </c>
@@ -4133,7 +4171,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35398</v>
       </c>
@@ -4153,7 +4191,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35428</v>
       </c>
@@ -4173,7 +4211,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>47</v>
       </c>
@@ -4191,7 +4229,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35459</v>
       </c>
@@ -4211,7 +4249,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35489</v>
       </c>
@@ -4231,7 +4269,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35517</v>
       </c>
@@ -4251,7 +4289,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35548</v>
       </c>
@@ -4271,7 +4309,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35578</v>
       </c>
@@ -4291,7 +4329,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35609</v>
       </c>
@@ -4311,7 +4349,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35639</v>
       </c>
@@ -4331,7 +4369,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35670</v>
       </c>
@@ -4351,7 +4389,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35701</v>
       </c>
@@ -4371,7 +4409,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35731</v>
       </c>
@@ -4391,7 +4429,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35762</v>
       </c>
@@ -4417,7 +4455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35792</v>
       </c>
@@ -4441,7 +4479,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>45</v>
       </c>
@@ -4459,7 +4497,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35823</v>
       </c>
@@ -4479,7 +4517,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35854</v>
       </c>
@@ -4499,7 +4537,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35882</v>
       </c>
@@ -4519,7 +4557,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35913</v>
       </c>
@@ -4539,7 +4577,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35943</v>
       </c>
@@ -4559,7 +4597,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35974</v>
       </c>
@@ -4579,7 +4617,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36004</v>
       </c>
@@ -4599,7 +4637,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36035</v>
       </c>
@@ -4619,7 +4657,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36066</v>
       </c>
@@ -4639,7 +4677,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36096</v>
       </c>
@@ -4661,7 +4699,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36127</v>
       </c>
@@ -4685,7 +4723,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36157</v>
       </c>
@@ -4711,7 +4749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>50</v>
@@ -4733,7 +4771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>55</v>
       </c>
@@ -4751,7 +4789,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36188</v>
       </c>
@@ -4777,7 +4815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>57</v>
@@ -4799,7 +4837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36219</v>
       </c>
@@ -4825,7 +4863,7 @@
         <v>36197</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>60</v>
@@ -4847,7 +4885,7 @@
         <v>36199</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36247</v>
       </c>
@@ -4873,7 +4911,7 @@
         <v>36234</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36278</v>
       </c>
@@ -4899,7 +4937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36308</v>
       </c>
@@ -4919,7 +4957,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36339</v>
       </c>
@@ -4939,7 +4977,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36369</v>
       </c>
@@ -4959,7 +4997,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36400</v>
       </c>
@@ -4979,7 +5017,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36431</v>
       </c>
@@ -4999,7 +5037,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36461</v>
       </c>
@@ -5025,7 +5063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -5041,7 +5079,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36492</v>
       </c>
@@ -5061,7 +5099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36522</v>
       </c>
@@ -5085,7 +5123,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>50</v>
@@ -5105,7 +5143,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>64</v>
@@ -5125,7 +5163,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
         <v>65</v>
       </c>
@@ -5143,7 +5181,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36553</v>
       </c>
@@ -5167,7 +5205,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36584</v>
       </c>
@@ -5191,7 +5229,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36613</v>
       </c>
@@ -5215,7 +5253,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36644</v>
       </c>
@@ -5239,7 +5277,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36674</v>
       </c>
@@ -5263,7 +5301,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36705</v>
       </c>
@@ -5287,7 +5325,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36735</v>
       </c>
@@ -5311,7 +5349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>72</v>
@@ -5333,7 +5371,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36766</v>
       </c>
@@ -5357,7 +5395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>73</v>
@@ -5379,7 +5417,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36797</v>
       </c>
@@ -5403,7 +5441,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36827</v>
       </c>
@@ -5427,7 +5465,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36858</v>
       </c>
@@ -5451,7 +5489,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36888</v>
       </c>
@@ -5475,7 +5513,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>76</v>
@@ -5495,7 +5533,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>79</v>
       </c>
@@ -5513,7 +5551,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36919</v>
       </c>
@@ -5537,7 +5575,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36950</v>
       </c>
@@ -5561,7 +5599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>80</v>
@@ -5583,7 +5621,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36978</v>
       </c>
@@ -5607,7 +5645,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37009</v>
       </c>
@@ -5631,7 +5669,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37039</v>
       </c>
@@ -5655,7 +5693,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37070</v>
       </c>
@@ -5679,7 +5717,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37100</v>
       </c>
@@ -5703,7 +5741,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37131</v>
       </c>
@@ -5727,7 +5765,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>86</v>
@@ -5749,7 +5787,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>87</v>
@@ -5771,7 +5809,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>51</v>
@@ -5793,7 +5831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37162</v>
       </c>
@@ -5819,7 +5857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>91</v>
@@ -5839,7 +5877,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37192</v>
       </c>
@@ -5865,7 +5903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -5885,7 +5923,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>93</v>
@@ -5905,7 +5943,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37223</v>
       </c>
@@ -5929,7 +5967,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37253</v>
       </c>
@@ -5953,7 +5991,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>96</v>
       </c>
@@ -5973,7 +6011,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37284</v>
       </c>
@@ -5997,7 +6035,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37315</v>
       </c>
@@ -6021,7 +6059,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>98</v>
@@ -6041,7 +6079,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37343</v>
       </c>
@@ -6065,7 +6103,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37374</v>
       </c>
@@ -6089,7 +6127,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37404</v>
       </c>
@@ -6113,7 +6151,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37435</v>
       </c>
@@ -6137,7 +6175,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37465</v>
       </c>
@@ -6161,7 +6199,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37496</v>
       </c>
@@ -6181,7 +6219,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37527</v>
       </c>
@@ -6201,7 +6239,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37557</v>
       </c>
@@ -6221,7 +6259,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37588</v>
       </c>
@@ -6241,7 +6279,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37618</v>
       </c>
@@ -6265,7 +6303,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>100</v>
       </c>
@@ -6283,7 +6321,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37649</v>
       </c>
@@ -6303,7 +6341,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37680</v>
       </c>
@@ -6323,7 +6361,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37708</v>
       </c>
@@ -6343,7 +6381,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37739</v>
       </c>
@@ -6363,7 +6401,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37769</v>
       </c>
@@ -6383,7 +6421,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37800</v>
       </c>
@@ -6403,7 +6441,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37830</v>
       </c>
@@ -6423,7 +6461,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -6441,7 +6479,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37861</v>
       </c>
@@ -6461,7 +6499,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37892</v>
       </c>
@@ -6481,7 +6519,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37922</v>
       </c>
@@ -6501,7 +6539,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37953</v>
       </c>
@@ -6525,7 +6563,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37983</v>
       </c>
@@ -6549,7 +6587,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>102</v>
@@ -6569,7 +6607,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="52" t="s">
         <v>103</v>
       </c>
@@ -6587,7 +6625,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="15"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38014</v>
       </c>
@@ -6613,7 +6651,7 @@
         <v>37994</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>104</v>
@@ -6633,7 +6671,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38045</v>
       </c>
@@ -6657,7 +6695,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38074</v>
       </c>
@@ -6683,7 +6721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>105</v>
@@ -6703,7 +6741,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38105</v>
       </c>
@@ -6729,7 +6767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>109</v>
@@ -6749,7 +6787,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38135</v>
       </c>
@@ -6775,7 +6813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>51</v>
@@ -6797,7 +6835,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>112</v>
@@ -6817,7 +6855,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38166</v>
       </c>
@@ -6841,7 +6879,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38196</v>
       </c>
@@ -6865,7 +6903,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38227</v>
       </c>
@@ -6889,7 +6927,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38258</v>
       </c>
@@ -6909,7 +6947,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38288</v>
       </c>
@@ -6935,7 +6973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>116</v>
@@ -6955,7 +6993,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38319</v>
       </c>
@@ -6979,7 +7017,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38349</v>
       </c>
@@ -7003,7 +7041,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>120</v>
@@ -7025,7 +7063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="49" t="s">
         <v>122</v>
       </c>
@@ -7043,7 +7081,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38380</v>
       </c>
@@ -7065,7 +7103,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38411</v>
       </c>
@@ -7087,7 +7125,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38439</v>
       </c>
@@ -7113,7 +7151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>126</v>
@@ -7133,7 +7171,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38470</v>
       </c>
@@ -7157,7 +7195,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38500</v>
       </c>
@@ -7183,7 +7221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>129</v>
@@ -7203,7 +7241,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38531</v>
       </c>
@@ -7227,7 +7265,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38561</v>
       </c>
@@ -7253,7 +7291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>60</v>
@@ -7275,7 +7313,7 @@
         <v>38554</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>133</v>
@@ -7295,7 +7333,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -7315,7 +7353,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38592</v>
       </c>
@@ -7339,7 +7377,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>135</v>
@@ -7359,7 +7397,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38623</v>
       </c>
@@ -7383,7 +7421,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38653</v>
       </c>
@@ -7409,7 +7447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>138</v>
@@ -7429,7 +7467,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38684</v>
       </c>
@@ -7453,7 +7491,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>57</v>
@@ -7475,7 +7513,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>140</v>
@@ -7495,7 +7533,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38714</v>
       </c>
@@ -7519,7 +7557,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
         <v>142</v>
       </c>
@@ -7537,7 +7575,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38745</v>
       </c>
@@ -7561,7 +7599,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38776</v>
       </c>
@@ -7585,7 +7623,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38804</v>
       </c>
@@ -7609,7 +7647,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38835</v>
       </c>
@@ -7633,7 +7671,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38865</v>
       </c>
@@ -7657,7 +7695,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38896</v>
       </c>
@@ -7681,7 +7719,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38926</v>
       </c>
@@ -7705,7 +7743,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38957</v>
       </c>
@@ -7729,7 +7767,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38988</v>
       </c>
@@ -7753,7 +7791,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39018</v>
       </c>
@@ -7777,7 +7815,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39049</v>
       </c>
@@ -7801,7 +7839,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39079</v>
       </c>
@@ -7825,7 +7863,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="49" t="s">
         <v>155</v>
       </c>
@@ -7843,7 +7881,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39110</v>
       </c>
@@ -7867,7 +7905,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39141</v>
       </c>
@@ -7891,7 +7929,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39169</v>
       </c>
@@ -7915,7 +7953,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39200</v>
       </c>
@@ -7939,7 +7977,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39230</v>
       </c>
@@ -7963,7 +8001,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39261</v>
       </c>
@@ -7987,7 +8025,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39291</v>
       </c>
@@ -8011,7 +8049,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39322</v>
       </c>
@@ -8035,7 +8073,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39353</v>
       </c>
@@ -8059,7 +8097,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39383</v>
       </c>
@@ -8083,7 +8121,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39414</v>
       </c>
@@ -8107,7 +8145,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39444</v>
       </c>
@@ -8131,7 +8169,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="49" t="s">
         <v>168</v>
       </c>
@@ -8149,7 +8187,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39475</v>
       </c>
@@ -8173,7 +8211,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39506</v>
       </c>
@@ -8197,7 +8235,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39535</v>
       </c>
@@ -8221,7 +8259,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39566</v>
       </c>
@@ -8245,7 +8283,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39596</v>
       </c>
@@ -8269,7 +8307,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39627</v>
       </c>
@@ -8293,7 +8331,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39657</v>
       </c>
@@ -8317,7 +8355,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39688</v>
       </c>
@@ -8341,7 +8379,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39719</v>
       </c>
@@ -8365,7 +8403,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39749</v>
       </c>
@@ -8389,7 +8427,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39780</v>
       </c>
@@ -8415,7 +8453,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>159</v>
@@ -8435,7 +8473,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39810</v>
       </c>
@@ -8459,7 +8497,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="49" t="s">
         <v>181</v>
       </c>
@@ -8477,7 +8515,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39841</v>
       </c>
@@ -8501,7 +8539,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>39872</v>
       </c>
@@ -8525,7 +8563,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39900</v>
       </c>
@@ -8549,7 +8587,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39931</v>
       </c>
@@ -8573,7 +8611,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39961</v>
       </c>
@@ -8597,7 +8635,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39992</v>
       </c>
@@ -8621,7 +8659,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40022</v>
       </c>
@@ -8647,7 +8685,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>188</v>
@@ -8667,7 +8705,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40053</v>
       </c>
@@ -8691,7 +8729,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40084</v>
       </c>
@@ -8717,7 +8755,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>189</v>
@@ -8737,7 +8775,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>60</v>
@@ -8759,7 +8797,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>40114</v>
       </c>
@@ -8783,7 +8821,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40145</v>
       </c>
@@ -8809,7 +8847,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>195</v>
@@ -8829,7 +8867,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40175</v>
       </c>
@@ -8853,7 +8891,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>197</v>
       </c>
@@ -8871,7 +8909,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40206</v>
       </c>
@@ -8895,7 +8933,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40237</v>
       </c>
@@ -8921,7 +8959,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>199</v>
@@ -8941,7 +8979,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40265</v>
       </c>
@@ -8965,7 +9003,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>40296</v>
       </c>
@@ -8989,7 +9027,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40326</v>
       </c>
@@ -9013,7 +9051,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40357</v>
       </c>
@@ -9039,7 +9077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>188</v>
@@ -9059,7 +9097,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40387</v>
       </c>
@@ -9083,7 +9121,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40418</v>
       </c>
@@ -9107,7 +9145,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40449</v>
       </c>
@@ -9133,7 +9171,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>207</v>
@@ -9153,7 +9191,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>40479</v>
       </c>
@@ -9177,7 +9215,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40510</v>
       </c>
@@ -9201,7 +9239,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40540</v>
       </c>
@@ -9225,7 +9263,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="49" t="s">
         <v>211</v>
       </c>
@@ -9243,7 +9281,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>40571</v>
       </c>
@@ -9267,7 +9305,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>60</v>
@@ -9289,7 +9327,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>40602</v>
       </c>
@@ -9315,7 +9353,7 @@
         <v>40583</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>213</v>
@@ -9335,7 +9373,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>40630</v>
       </c>
@@ -9359,7 +9397,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40661</v>
       </c>
@@ -9383,7 +9421,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40691</v>
       </c>
@@ -9407,7 +9445,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40722</v>
       </c>
@@ -9431,7 +9469,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40752</v>
       </c>
@@ -9457,7 +9495,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>217</v>
@@ -9477,7 +9515,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40783</v>
       </c>
@@ -9501,7 +9539,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40814</v>
       </c>
@@ -9525,7 +9563,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40844</v>
       </c>
@@ -9549,7 +9587,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40875</v>
       </c>
@@ -9573,7 +9611,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>40905</v>
       </c>
@@ -9597,7 +9635,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="49" t="s">
         <v>223</v>
       </c>
@@ -9615,7 +9653,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40936</v>
       </c>
@@ -9641,7 +9679,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>226</v>
@@ -9663,7 +9701,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40967</v>
       </c>
@@ -9687,7 +9725,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40996</v>
       </c>
@@ -9713,7 +9751,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>229</v>
@@ -9733,7 +9771,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41027</v>
       </c>
@@ -9757,7 +9795,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>41057</v>
       </c>
@@ -9783,7 +9821,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="15" t="s">
         <v>232</v>
@@ -9803,7 +9841,7 @@
       <c r="J267" s="12"/>
       <c r="K267" s="15"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>41088</v>
       </c>
@@ -9827,7 +9865,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41118</v>
       </c>
@@ -9851,7 +9889,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>41149</v>
       </c>
@@ -9875,7 +9913,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41180</v>
       </c>
@@ -9901,7 +9939,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>236</v>
@@ -9921,7 +9959,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>41210</v>
       </c>
@@ -9945,7 +9983,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41241</v>
       </c>
@@ -9971,7 +10009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>239</v>
@@ -9991,7 +10029,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>41271</v>
       </c>
@@ -10015,7 +10053,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="49" t="s">
         <v>241</v>
       </c>
@@ -10033,7 +10071,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>41302</v>
       </c>
@@ -10057,7 +10095,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>41333</v>
       </c>
@@ -10081,7 +10119,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>41361</v>
       </c>
@@ -10105,7 +10143,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41392</v>
       </c>
@@ -10129,7 +10167,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>41422</v>
       </c>
@@ -10153,7 +10191,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41453</v>
       </c>
@@ -10177,7 +10215,7 @@
       <c r="J283" s="12"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>41483</v>
       </c>
@@ -10201,7 +10239,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>41514</v>
       </c>
@@ -10225,7 +10263,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41545</v>
       </c>
@@ -10249,7 +10287,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>41575</v>
       </c>
@@ -10273,7 +10311,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>41606</v>
       </c>
@@ -10297,7 +10335,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>41636</v>
       </c>
@@ -10321,7 +10359,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>252</v>
       </c>
@@ -10339,7 +10377,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41667</v>
       </c>
@@ -10359,7 +10397,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>87</v>
@@ -10381,7 +10419,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41698</v>
       </c>
@@ -10403,7 +10441,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>60</v>
@@ -10425,7 +10463,7 @@
         <v>41684</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>41726</v>
       </c>
@@ -10447,7 +10485,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>263</v>
@@ -10469,7 +10507,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>41757</v>
       </c>
@@ -10491,7 +10529,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>263</v>
@@ -10513,7 +10551,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41787</v>
       </c>
@@ -10535,7 +10573,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>266</v>
@@ -10557,7 +10595,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>41818</v>
       </c>
@@ -10579,7 +10617,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>51</v>
@@ -10601,7 +10639,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41848</v>
       </c>
@@ -10623,7 +10661,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>60</v>
@@ -10645,7 +10683,7 @@
         <v>41827</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41879</v>
       </c>
@@ -10667,7 +10705,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41910</v>
       </c>
@@ -10689,7 +10727,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41940</v>
       </c>
@@ -10711,7 +10749,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>41971</v>
       </c>
@@ -10733,7 +10771,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42001</v>
       </c>
@@ -10755,7 +10793,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="49" t="s">
         <v>261</v>
       </c>
@@ -10773,7 +10811,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42032</v>
       </c>
@@ -10793,7 +10831,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42063</v>
       </c>
@@ -10813,7 +10851,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42091</v>
       </c>
@@ -10833,7 +10871,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42122</v>
       </c>
@@ -10853,7 +10891,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>42152</v>
       </c>
@@ -10873,7 +10911,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>42183</v>
       </c>
@@ -10893,7 +10931,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>42213</v>
       </c>
@@ -10913,7 +10951,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>42244</v>
       </c>
@@ -10937,7 +10975,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>60</v>
@@ -10959,7 +10997,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>42275</v>
       </c>
@@ -10983,7 +11021,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -11005,7 +11043,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>42305</v>
       </c>
@@ -11029,7 +11067,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>42336</v>
       </c>
@@ -11053,7 +11091,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>42366</v>
       </c>
@@ -11077,7 +11115,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>51</v>
@@ -11099,7 +11137,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -11119,7 +11157,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="49" t="s">
         <v>273</v>
       </c>
@@ -11137,7 +11175,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>42397</v>
       </c>
@@ -11161,7 +11199,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>60</v>
@@ -11183,7 +11221,7 @@
         <v>42391</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>42428</v>
       </c>
@@ -11207,7 +11245,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>42457</v>
       </c>
@@ -11231,7 +11269,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>42488</v>
       </c>
@@ -11255,7 +11293,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>60</v>
@@ -11277,7 +11315,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>42518</v>
       </c>
@@ -11301,7 +11339,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>42549</v>
       </c>
@@ -11325,7 +11363,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42579</v>
       </c>
@@ -11349,7 +11387,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>42610</v>
       </c>
@@ -11373,7 +11411,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>60</v>
@@ -11395,7 +11433,7 @@
         <v>42608</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>42641</v>
       </c>
@@ -11419,7 +11457,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42671</v>
       </c>
@@ -11443,7 +11481,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42702</v>
       </c>
@@ -11467,7 +11505,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>60</v>
@@ -11489,7 +11527,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>42732</v>
       </c>
@@ -11513,7 +11551,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>51</v>
@@ -11535,7 +11573,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="49" t="s">
         <v>286</v>
       </c>
@@ -11553,7 +11591,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>42763</v>
       </c>
@@ -11577,7 +11615,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42794</v>
       </c>
@@ -11601,7 +11639,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42822</v>
       </c>
@@ -11625,7 +11663,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>42853</v>
       </c>
@@ -11651,7 +11689,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>289</v>
@@ -11671,7 +11709,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42883</v>
       </c>
@@ -11691,7 +11729,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>42914</v>
       </c>
@@ -11711,7 +11749,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42944</v>
       </c>
@@ -11735,7 +11773,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>42975</v>
       </c>
@@ -11757,7 +11795,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43006</v>
       </c>
@@ -11781,7 +11819,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>60</v>
@@ -11803,7 +11841,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11825,7 +11863,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43036</v>
       </c>
@@ -11849,7 +11887,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43067</v>
       </c>
@@ -11869,7 +11907,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43097</v>
       </c>
@@ -11893,7 +11931,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="52" t="s">
         <v>295</v>
       </c>
@@ -11911,7 +11949,7 @@
       <c r="J361" s="12"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>43128</v>
       </c>
@@ -11931,7 +11969,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>43159</v>
       </c>
@@ -11951,7 +11989,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>43187</v>
       </c>
@@ -11971,7 +12009,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43218</v>
       </c>
@@ -11991,7 +12029,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43248</v>
       </c>
@@ -12015,7 +12053,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43279</v>
       </c>
@@ -12039,7 +12077,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>43309</v>
       </c>
@@ -12063,7 +12101,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43340</v>
       </c>
@@ -12087,7 +12125,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>43371</v>
       </c>
@@ -12109,7 +12147,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>43401</v>
       </c>
@@ -12131,7 +12169,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>60</v>
@@ -12153,7 +12191,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>43432</v>
       </c>
@@ -12173,7 +12211,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43462</v>
       </c>
@@ -12199,7 +12237,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>60</v>
@@ -12221,7 +12259,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>300</v>
@@ -12241,7 +12279,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="49" t="s">
         <v>302</v>
       </c>
@@ -12259,7 +12297,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>43493</v>
       </c>
@@ -12283,7 +12321,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43524</v>
       </c>
@@ -12309,7 +12347,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12325,7 +12363,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43552</v>
       </c>
@@ -12349,7 +12387,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43583</v>
       </c>
@@ -12375,7 +12413,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43613</v>
       </c>
@@ -12395,7 +12433,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43644</v>
       </c>
@@ -12419,7 +12457,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43674</v>
       </c>
@@ -12443,7 +12481,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43705</v>
       </c>
@@ -12467,7 +12505,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43736</v>
       </c>
@@ -12491,7 +12529,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43766</v>
       </c>
@@ -12515,7 +12553,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43797</v>
       </c>
@@ -12541,7 +12579,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>310</v>
@@ -12561,7 +12599,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43827</v>
       </c>
@@ -12587,7 +12625,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>298</v>
@@ -12609,7 +12647,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>60</v>
@@ -12631,7 +12669,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>57</v>
@@ -12653,7 +12691,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="41"/>
       <c r="B395" s="15" t="s">
         <v>52</v>
@@ -12673,7 +12711,7 @@
       <c r="J395" s="12"/>
       <c r="K395" s="15"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41"/>
       <c r="B396" s="15" t="s">
         <v>50</v>
@@ -12691,12 +12729,12 @@
       <c r="H396" s="43"/>
       <c r="I396" s="51">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>251.91700000000003</v>
+        <v>256.91700000000003</v>
       </c>
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="49" t="s">
         <v>314</v>
       </c>
@@ -12714,7 +12752,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43858</v>
       </c>
@@ -12734,7 +12772,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43889</v>
       </c>
@@ -12758,7 +12796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>57</v>
@@ -12780,7 +12818,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43918</v>
       </c>
@@ -12800,7 +12838,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>43949</v>
       </c>
@@ -12820,7 +12858,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43979</v>
       </c>
@@ -12840,7 +12878,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44010</v>
       </c>
@@ -12860,7 +12898,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>44040</v>
       </c>
@@ -12880,7 +12918,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>44071</v>
       </c>
@@ -12900,7 +12938,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>44102</v>
       </c>
@@ -12920,7 +12958,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>44132</v>
       </c>
@@ -12940,7 +12978,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>44163</v>
       </c>
@@ -12960,7 +12998,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44193</v>
       </c>
@@ -12984,7 +13022,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="49" t="s">
         <v>317</v>
       </c>
@@ -13002,7 +13040,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44224</v>
       </c>
@@ -13022,7 +13060,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>44255</v>
       </c>
@@ -13042,7 +13080,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44283</v>
       </c>
@@ -13062,7 +13100,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>44314</v>
       </c>
@@ -13082,7 +13120,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44344</v>
       </c>
@@ -13102,7 +13140,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44375</v>
       </c>
@@ -13122,7 +13160,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44405</v>
       </c>
@@ -13142,7 +13180,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44436</v>
       </c>
@@ -13162,7 +13200,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44467</v>
       </c>
@@ -13182,7 +13220,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44497</v>
       </c>
@@ -13202,7 +13240,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>44528</v>
       </c>
@@ -13222,7 +13260,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44558</v>
       </c>
@@ -13246,7 +13284,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="49" t="s">
         <v>318</v>
       </c>
@@ -13264,7 +13302,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44589</v>
       </c>
@@ -13284,7 +13322,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44620</v>
       </c>
@@ -13304,7 +13342,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44648</v>
       </c>
@@ -13330,7 +13368,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44679</v>
       </c>
@@ -13350,7 +13388,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44709</v>
       </c>
@@ -13376,7 +13414,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44740</v>
       </c>
@@ -13402,7 +13440,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44770</v>
       </c>
@@ -13428,7 +13466,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>329</v>
@@ -13448,7 +13486,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44801</v>
       </c>
@@ -13474,7 +13512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>331</v>
@@ -13494,7 +13532,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44832</v>
       </c>
@@ -13520,7 +13558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>329</v>
@@ -13540,7 +13578,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44862</v>
       </c>
@@ -13566,7 +13604,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>325</v>
@@ -13586,7 +13624,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44893</v>
       </c>
@@ -13612,7 +13650,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>327</v>
@@ -13632,7 +13670,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44923</v>
       </c>
@@ -13656,7 +13694,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>320</v>
@@ -13678,7 +13716,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>322</v>
@@ -13698,7 +13736,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="49" t="s">
         <v>319</v>
       </c>
@@ -13716,7 +13754,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44954</v>
       </c>
@@ -13736,7 +13774,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44985</v>
       </c>
@@ -13756,7 +13794,7 @@
       <c r="J446" s="12"/>
       <c r="K446" s="15"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>45013</v>
       </c>
@@ -13776,7 +13814,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>45044</v>
       </c>
@@ -13796,7 +13834,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>45074</v>
       </c>
@@ -13816,7 +13854,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>45105</v>
       </c>
@@ -13836,15 +13874,19 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>45135</v>
       </c>
-      <c r="B451" s="20"/>
+      <c r="B451" s="20" t="s">
+        <v>345</v>
+      </c>
       <c r="C451" s="13">
         <v>1.25</v>
       </c>
-      <c r="D451" s="39"/>
+      <c r="D451" s="39">
+        <v>4</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13">
@@ -13854,53 +13896,65 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A452" s="40">
-        <v>45166</v>
-      </c>
-      <c r="B452" s="20"/>
-      <c r="C452" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D452" s="39"/>
+      <c r="K451" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="40"/>
+      <c r="B452" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C452" s="13"/>
+      <c r="D452" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45197</v>
-      </c>
-      <c r="B453" s="20"/>
-      <c r="C453" s="13"/>
-      <c r="D453" s="39"/>
+        <v>45166</v>
+      </c>
+      <c r="B453" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D453" s="39">
+        <v>2</v>
+      </c>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="20"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A454" s="40">
-        <v>45227</v>
-      </c>
-      <c r="B454" s="20"/>
+      <c r="K453" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="40"/>
+      <c r="B454" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="C454" s="13"/>
-      <c r="D454" s="39"/>
+      <c r="D454" s="39">
+        <v>1.0289999999999999</v>
+      </c>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
       <c r="G454" s="13" t="str">
@@ -13912,49 +13966,61 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45258</v>
+        <v>45197</v>
       </c>
       <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="39"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H455" s="39"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45288</v>
-      </c>
-      <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
-      <c r="D456" s="39"/>
+        <v>45227</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D456" s="39">
+        <v>2</v>
+      </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457" s="40">
-        <v>45319</v>
-      </c>
-      <c r="B457" s="20"/>
+      <c r="K456" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="40"/>
+      <c r="B457" s="53" t="s">
+        <v>342</v>
+      </c>
       <c r="C457" s="13"/>
-      <c r="D457" s="39"/>
+      <c r="D457" s="39">
+        <v>1.0229999999999999</v>
+      </c>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
       <c r="G457" s="13" t="str">
@@ -13966,31 +14032,39 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>45350</v>
-      </c>
-      <c r="B458" s="20"/>
-      <c r="C458" s="13"/>
+        <v>45258</v>
+      </c>
+      <c r="B458" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D458" s="39"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459" s="40">
-        <v>45379</v>
-      </c>
-      <c r="B459" s="20"/>
+      <c r="K458" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="40"/>
+      <c r="B459" s="53" t="s">
+        <v>340</v>
+      </c>
       <c r="C459" s="13"/>
-      <c r="D459" s="39"/>
+      <c r="D459" s="39">
+        <v>1.0149999999999999</v>
+      </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="13" t="str">
@@ -14002,31 +14076,41 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>45410</v>
-      </c>
-      <c r="B460" s="20"/>
-      <c r="C460" s="13"/>
-      <c r="D460" s="39"/>
+        <v>45288</v>
+      </c>
+      <c r="B460" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D460" s="39">
+        <v>5</v>
+      </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461" s="40">
-        <v>45440</v>
-      </c>
-      <c r="B461" s="20"/>
+      <c r="K460" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="40"/>
+      <c r="B461" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="C461" s="13"/>
-      <c r="D461" s="39"/>
+      <c r="D461" s="39">
+        <v>1.2210000000000001</v>
+      </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
       <c r="G461" s="13" t="str">
@@ -14038,11 +14122,11 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462" s="40">
-        <v>45471</v>
-      </c>
-      <c r="B462" s="20"/>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B462" s="53"/>
       <c r="C462" s="13"/>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
@@ -14056,9 +14140,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45501</v>
+        <v>45319</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -14074,9 +14158,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45532</v>
+        <v>45350</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -14092,9 +14176,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45563</v>
+        <v>45379</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -14110,9 +14194,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45593</v>
+        <v>45410</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -14128,9 +14212,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45624</v>
+        <v>45440</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -14146,9 +14230,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45654</v>
+        <v>45471</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -14164,9 +14248,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45685</v>
+        <v>45501</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -14182,9 +14266,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45716</v>
+        <v>45532</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -14200,9 +14284,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45744</v>
+        <v>45563</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -14218,9 +14302,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45775</v>
+        <v>45593</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -14236,9 +14320,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45805</v>
+        <v>45624</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -14254,9 +14338,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45836</v>
+        <v>45654</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -14272,9 +14356,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45866</v>
+        <v>45685</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -14290,9 +14374,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45897</v>
+        <v>45716</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -14308,9 +14392,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45928</v>
+        <v>45744</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14326,9 +14410,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45958</v>
+        <v>45775</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14344,9 +14428,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45989</v>
+        <v>45805</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14362,9 +14446,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>46019</v>
+        <v>45836</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14380,9 +14464,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>46050</v>
+        <v>45866</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14398,9 +14482,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>46081</v>
+        <v>45897</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14416,9 +14500,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>46109</v>
+        <v>45928</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14434,9 +14518,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>46140</v>
+        <v>45958</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14452,9 +14536,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>46170</v>
+        <v>45989</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14470,9 +14554,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>46201</v>
+        <v>46019</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14488,9 +14572,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>46231</v>
+        <v>46050</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14506,9 +14590,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>46262</v>
+        <v>46081</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14524,9 +14608,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>46293</v>
+        <v>46109</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14542,9 +14626,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>46323</v>
+        <v>46140</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14560,9 +14644,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>46354</v>
+        <v>46170</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14578,9 +14662,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>46384</v>
+        <v>46201</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14596,9 +14680,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>46415</v>
+        <v>46231</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14614,9 +14698,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>46446</v>
+        <v>46262</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14632,9 +14716,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46474</v>
+        <v>46293</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14650,9 +14734,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>46505</v>
+        <v>46323</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14668,9 +14752,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>46535</v>
+        <v>46354</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14686,9 +14770,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>46566</v>
+        <v>46384</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14704,9 +14788,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>46596</v>
+        <v>46415</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14722,9 +14806,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>46627</v>
+        <v>46446</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14740,9 +14824,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>46658</v>
+        <v>46474</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14758,9 +14842,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>46688</v>
+        <v>46505</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14776,9 +14860,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>46719</v>
+        <v>46535</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14794,9 +14878,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>46749</v>
+        <v>46566</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14812,9 +14896,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>46780</v>
+        <v>46596</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14830,9 +14914,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>46811</v>
+        <v>46627</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14848,9 +14932,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>46840</v>
+        <v>46658</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14866,9 +14950,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>46871</v>
+        <v>46688</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14884,9 +14968,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>46901</v>
+        <v>46719</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14902,9 +14986,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>46932</v>
+        <v>46749</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14920,9 +15004,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>46962</v>
+        <v>46780</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14938,9 +15022,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>46993</v>
+        <v>46811</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14956,9 +15040,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>47024</v>
+        <v>46840</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14974,9 +15058,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>47054</v>
+        <v>46871</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14992,9 +15076,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>47085</v>
+        <v>46901</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15010,9 +15094,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>47115</v>
+        <v>46932</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15028,9 +15112,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>47146</v>
+        <v>46962</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15046,9 +15130,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>47177</v>
+        <v>46993</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15064,9 +15148,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>47205</v>
+        <v>47024</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15082,9 +15166,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>47236</v>
+        <v>47054</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15100,9 +15184,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>47266</v>
+        <v>47085</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15118,9 +15202,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>47297</v>
+        <v>47115</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15136,9 +15220,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>47327</v>
+        <v>47146</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15154,9 +15238,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>47358</v>
+        <v>47177</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15172,9 +15256,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>47389</v>
+        <v>47205</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15190,9 +15274,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>47419</v>
+        <v>47236</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15208,9 +15292,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>47450</v>
+        <v>47266</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15226,9 +15310,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>47480</v>
+        <v>47297</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15244,9 +15328,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>47511</v>
+        <v>47327</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15262,9 +15346,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>47542</v>
+        <v>47358</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15280,9 +15364,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>47570</v>
+        <v>47389</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15298,9 +15382,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>47601</v>
+        <v>47419</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15316,9 +15400,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>47631</v>
+        <v>47450</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15334,9 +15418,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>47662</v>
+        <v>47480</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15352,9 +15436,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>47692</v>
+        <v>47511</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15370,9 +15454,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>47723</v>
+        <v>47542</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15388,9 +15472,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>47754</v>
+        <v>47570</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15406,9 +15490,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>47784</v>
+        <v>47601</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15424,9 +15508,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>47815</v>
+        <v>47631</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15442,9 +15526,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>47845</v>
+        <v>47662</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15460,9 +15544,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>47876</v>
+        <v>47692</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15478,9 +15562,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>47907</v>
+        <v>47723</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15496,9 +15580,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>47935</v>
+        <v>47754</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15514,9 +15598,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>47966</v>
+        <v>47784</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15532,9 +15616,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>47996</v>
+        <v>47815</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15550,9 +15634,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>48027</v>
+        <v>47845</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15568,9 +15652,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>48057</v>
+        <v>47876</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15586,9 +15670,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>48088</v>
+        <v>47907</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15604,9 +15688,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>48119</v>
+        <v>47935</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15622,9 +15706,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>48149</v>
+        <v>47966</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15640,9 +15724,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>48180</v>
+        <v>47996</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15658,9 +15742,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>48210</v>
+        <v>48027</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15676,9 +15760,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>48241</v>
+        <v>48057</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15694,9 +15778,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>48272</v>
+        <v>48088</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15712,9 +15796,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>48301</v>
+        <v>48119</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15730,9 +15814,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>48332</v>
+        <v>48149</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15748,9 +15832,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>48362</v>
+        <v>48180</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15766,9 +15850,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>48393</v>
+        <v>48210</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15784,9 +15868,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>48423</v>
+        <v>48241</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15802,9 +15886,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>48454</v>
+        <v>48272</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15820,9 +15904,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>48485</v>
+        <v>48301</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15838,9 +15922,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>48515</v>
+        <v>48332</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15856,9 +15940,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>48546</v>
+        <v>48362</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15874,9 +15958,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>48576</v>
+        <v>48393</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15892,9 +15976,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>48607</v>
+        <v>48423</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15910,9 +15994,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>48638</v>
+        <v>48454</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15928,9 +16012,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>48666</v>
+        <v>48485</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15945,6 +16029,114 @@
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="40">
+        <v>48515</v>
+      </c>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40">
+        <v>48546</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40">
+        <v>48576</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40">
+        <v>48607</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="40">
+        <v>48638</v>
+      </c>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="40">
+        <v>48666</v>
+      </c>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15961,10 +16153,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15987,7 +16179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15995,34 +16187,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16051,21 +16243,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.13300000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -16079,17 +16269,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16103,14 +16293,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16137,7 +16327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16163,7 +16353,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16189,7 +16379,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16215,7 +16405,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16241,7 +16431,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16267,7 +16457,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16293,7 +16483,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16319,7 +16509,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16339,7 +16529,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16359,7 +16549,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16379,7 +16569,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16400,7 +16590,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16421,7 +16611,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16442,7 +16632,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16463,7 +16653,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16484,7 +16674,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16505,7 +16695,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16526,7 +16716,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16547,7 +16737,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16568,7 +16758,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16589,7 +16779,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16610,7 +16800,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16631,7 +16821,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16652,7 +16842,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16673,7 +16863,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16694,7 +16884,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16715,7 +16905,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16736,7 +16926,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16757,7 +16947,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16778,7 +16968,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16799,7 +16989,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16808,7 +16998,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16817,7 +17007,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16826,7 +17016,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16835,7 +17025,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16844,7 +17034,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16853,7 +17043,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16862,7 +17052,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16871,7 +17061,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16880,7 +17070,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16889,7 +17079,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16898,7 +17088,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16907,7 +17097,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16916,7 +17106,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16925,7 +17115,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16934,7 +17124,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16943,7 +17133,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16952,7 +17142,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16961,7 +17151,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16970,7 +17160,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16979,7 +17169,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16988,7 +17178,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16997,7 +17187,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17006,7 +17196,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17015,7 +17205,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17024,7 +17214,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17033,7 +17223,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17042,7 +17232,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17051,7 +17241,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17060,7 +17250,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CEO/SUMAGUI, MARISSA.xlsx
+++ b/REGULAR/CEO/SUMAGUI, MARISSA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1078,6 +1078,24 @@
   </si>
   <si>
     <t>UT(0-4-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-4-5)</t>
+  </si>
+  <si>
+    <t>5/2,17,23,29/2023</t>
+  </si>
+  <si>
+    <t>4/4,17,19/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-38)</t>
+  </si>
+  <si>
+    <t>2/13,14,20,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1974,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2017,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2081,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2141,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2207,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2270,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2368,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2427,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2492,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2535,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2610,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2796,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2862,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2920,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2986,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3042,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3117,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3160,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3226,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3282,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,7 +3380,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3443,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,8 +3509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K573"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K577" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K577"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3870,12 +3888,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K573"/>
+  <dimension ref="A2:K577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A442" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E453" sqref="E453"/>
+      <selection pane="bottomLeft" activeCell="K446" sqref="K446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4054,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.3869999999998299</v>
+        <v>-12.375000000000171</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13778,11 +13796,15 @@
       <c r="A446" s="40">
         <v>44985</v>
       </c>
-      <c r="B446" s="15"/>
+      <c r="B446" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="C446" s="13">
         <v>1.25</v>
       </c>
-      <c r="D446" s="43"/>
+      <c r="D446" s="43">
+        <v>4</v>
+      </c>
       <c r="E446" s="51"/>
       <c r="F446" s="15"/>
       <c r="G446" s="42">
@@ -13792,17 +13814,23 @@
       <c r="H446" s="43"/>
       <c r="I446" s="51"/>
       <c r="J446" s="12"/>
-      <c r="K446" s="15"/>
+      <c r="K446" s="15" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>45013</v>
       </c>
-      <c r="B447" s="20"/>
+      <c r="B447" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C447" s="13">
         <v>1.25</v>
       </c>
-      <c r="D447" s="39"/>
+      <c r="D447" s="39">
+        <v>1</v>
+      </c>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="13">
@@ -13812,37 +13840,43 @@
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
+      <c r="K447" s="48">
+        <v>44993</v>
+      </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="40">
-        <v>45044</v>
-      </c>
-      <c r="B448" s="20"/>
-      <c r="C448" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D448" s="39"/>
+      <c r="A448" s="40"/>
+      <c r="B448" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
+      <c r="K448" s="48"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45074</v>
-      </c>
-      <c r="B449" s="20"/>
+        <v>45044</v>
+      </c>
+      <c r="B449" s="20" t="s">
+        <v>320</v>
+      </c>
       <c r="C449" s="13">
         <v>1.25</v>
       </c>
-      <c r="D449" s="39"/>
+      <c r="D449" s="39">
+        <v>3</v>
+      </c>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
       <c r="G449" s="13">
@@ -13852,22 +13886,24 @@
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="20"/>
+      <c r="K449" s="20" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="40">
-        <v>45105</v>
-      </c>
-      <c r="B450" s="20"/>
-      <c r="C450" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D450" s="39"/>
+      <c r="A450" s="40"/>
+      <c r="B450" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C450" s="13"/>
+      <c r="D450" s="39">
+        <v>7.9000000000000015E-2</v>
+      </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
@@ -13876,7 +13912,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45135</v>
+        <v>45074</v>
       </c>
       <c r="B451" s="20" t="s">
         <v>345</v>
@@ -13897,17 +13933,17 @@
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
       <c r="K451" s="20" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="39">
-        <v>0.53100000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
@@ -13922,16 +13958,16 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45166</v>
+        <v>45105</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C453" s="13">
         <v>1.25</v>
       </c>
       <c r="D453" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
@@ -13942,18 +13978,18 @@
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="20" t="s">
-        <v>343</v>
+      <c r="K453" s="48">
+        <v>45096</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="53" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C454" s="13"/>
       <c r="D454" s="39">
-        <v>1.0289999999999999</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
@@ -13964,17 +14000,21 @@
       <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="48"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45197</v>
-      </c>
-      <c r="B455" s="20"/>
+        <v>45135</v>
+      </c>
+      <c r="B455" s="20" t="s">
+        <v>345</v>
+      </c>
       <c r="C455" s="13">
         <v>1.25</v>
       </c>
-      <c r="D455" s="39"/>
+      <c r="D455" s="39">
+        <v>4</v>
+      </c>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
       <c r="G455" s="13">
@@ -13984,92 +14024,90 @@
       <c r="H455" s="39"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
+      <c r="K455" s="20" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="40">
-        <v>45227</v>
-      </c>
-      <c r="B456" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C456" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A456" s="40"/>
+      <c r="B456" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C456" s="13"/>
       <c r="D456" s="39">
-        <v>2</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="K456" s="20"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="40"/>
-      <c r="B457" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C457" s="13"/>
+      <c r="A457" s="40">
+        <v>45166</v>
+      </c>
+      <c r="B457" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="39">
-        <v>1.0229999999999999</v>
+        <v>2</v>
       </c>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
+      <c r="K457" s="20" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="40">
-        <v>45258</v>
-      </c>
-      <c r="B458" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C458" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D458" s="39"/>
+      <c r="A458" s="40"/>
+      <c r="B458" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39">
+        <v>1.0289999999999999</v>
+      </c>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20" t="s">
-        <v>339</v>
-      </c>
+      <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="40"/>
-      <c r="B459" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C459" s="13"/>
-      <c r="D459" s="39">
-        <v>1.0149999999999999</v>
-      </c>
+      <c r="A459" s="40">
+        <v>45197</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D459" s="39"/>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
@@ -14078,16 +14116,16 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>45288</v>
+        <v>45227</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="C460" s="13">
         <v>1.25</v>
       </c>
       <c r="D460" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
@@ -14099,17 +14137,17 @@
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="20" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="53" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39">
-        <v>1.2210000000000001</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
@@ -14123,30 +14161,38 @@
       <c r="K461" s="20"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="B462" s="53"/>
-      <c r="C462" s="13"/>
+      <c r="A462" s="40">
+        <v>45258</v>
+      </c>
+      <c r="B462" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="20" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="40">
-        <v>45319</v>
-      </c>
-      <c r="B463" s="20"/>
+      <c r="A463" s="40"/>
+      <c r="B463" s="53" t="s">
+        <v>340</v>
+      </c>
       <c r="C463" s="13"/>
-      <c r="D463" s="39"/>
+      <c r="D463" s="39">
+        <v>1.0149999999999999</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
       <c r="G463" s="13" t="str">
@@ -14160,29 +14206,39 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45350</v>
-      </c>
-      <c r="B464" s="20"/>
-      <c r="C464" s="13"/>
-      <c r="D464" s="39"/>
+        <v>45288</v>
+      </c>
+      <c r="B464" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="39">
+        <v>5</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="40">
-        <v>45379</v>
-      </c>
-      <c r="B465" s="20"/>
+      <c r="A465" s="40"/>
+      <c r="B465" s="53" t="s">
+        <v>338</v>
+      </c>
       <c r="C465" s="13"/>
-      <c r="D465" s="39"/>
+      <c r="D465" s="39">
+        <v>1.2210000000000001</v>
+      </c>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
       <c r="G465" s="13" t="str">
@@ -14195,10 +14251,10 @@
       <c r="K465" s="20"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="40">
-        <v>45410</v>
-      </c>
-      <c r="B466" s="20"/>
+      <c r="A466" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B466" s="53"/>
       <c r="C466" s="13"/>
       <c r="D466" s="39"/>
       <c r="E466" s="9"/>
@@ -14214,7 +14270,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45440</v>
+        <v>45319</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -14232,7 +14288,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45471</v>
+        <v>45350</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -14250,7 +14306,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45501</v>
+        <v>45379</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -14268,7 +14324,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45532</v>
+        <v>45410</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -14286,7 +14342,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45563</v>
+        <v>45440</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -14304,7 +14360,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45593</v>
+        <v>45471</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -14322,7 +14378,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45624</v>
+        <v>45501</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -14340,7 +14396,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45654</v>
+        <v>45532</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -14358,7 +14414,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45685</v>
+        <v>45563</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -14376,7 +14432,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45716</v>
+        <v>45593</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -14394,7 +14450,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45744</v>
+        <v>45624</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14412,7 +14468,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45775</v>
+        <v>45654</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14430,7 +14486,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45805</v>
+        <v>45685</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14448,7 +14504,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45836</v>
+        <v>45716</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14466,7 +14522,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45866</v>
+        <v>45744</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14484,7 +14540,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45897</v>
+        <v>45775</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14502,7 +14558,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45928</v>
+        <v>45805</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14520,7 +14576,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45958</v>
+        <v>45836</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14538,7 +14594,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45989</v>
+        <v>45866</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14556,7 +14612,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>46019</v>
+        <v>45897</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14574,7 +14630,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>46050</v>
+        <v>45928</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14592,7 +14648,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>46081</v>
+        <v>45958</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14610,7 +14666,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>46109</v>
+        <v>45989</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14628,7 +14684,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>46140</v>
+        <v>46019</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14646,7 +14702,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>46170</v>
+        <v>46050</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14664,7 +14720,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>46201</v>
+        <v>46081</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14682,7 +14738,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>46231</v>
+        <v>46109</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14700,7 +14756,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>46262</v>
+        <v>46140</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14718,7 +14774,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46293</v>
+        <v>46170</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14736,7 +14792,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>46323</v>
+        <v>46201</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14754,7 +14810,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>46354</v>
+        <v>46231</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14772,7 +14828,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>46384</v>
+        <v>46262</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14790,7 +14846,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>46415</v>
+        <v>46293</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14808,7 +14864,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>46446</v>
+        <v>46323</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14826,7 +14882,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>46474</v>
+        <v>46354</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14844,7 +14900,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>46505</v>
+        <v>46384</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14862,7 +14918,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>46535</v>
+        <v>46415</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14880,7 +14936,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>46566</v>
+        <v>46446</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14898,7 +14954,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>46596</v>
+        <v>46474</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14916,7 +14972,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>46627</v>
+        <v>46505</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14934,7 +14990,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>46658</v>
+        <v>46535</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14952,7 +15008,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>46688</v>
+        <v>46566</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14970,7 +15026,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>46719</v>
+        <v>46596</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14988,7 +15044,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>46749</v>
+        <v>46627</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15006,7 +15062,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>46780</v>
+        <v>46658</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15024,7 +15080,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>46811</v>
+        <v>46688</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15042,7 +15098,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>46840</v>
+        <v>46719</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15060,7 +15116,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>46871</v>
+        <v>46749</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15078,7 +15134,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>46901</v>
+        <v>46780</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15096,7 +15152,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46932</v>
+        <v>46811</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15114,7 +15170,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46962</v>
+        <v>46840</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15132,7 +15188,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46993</v>
+        <v>46871</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15150,7 +15206,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>47024</v>
+        <v>46901</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15168,7 +15224,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>47054</v>
+        <v>46932</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15186,7 +15242,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>47085</v>
+        <v>46962</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15204,7 +15260,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>47115</v>
+        <v>46993</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15222,7 +15278,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>47146</v>
+        <v>47024</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15240,7 +15296,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>47177</v>
+        <v>47054</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15258,7 +15314,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>47205</v>
+        <v>47085</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15276,7 +15332,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>47236</v>
+        <v>47115</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15294,7 +15350,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>47266</v>
+        <v>47146</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15312,7 +15368,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>47297</v>
+        <v>47177</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15330,7 +15386,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>47327</v>
+        <v>47205</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15348,7 +15404,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>47358</v>
+        <v>47236</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15366,7 +15422,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>47389</v>
+        <v>47266</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15384,7 +15440,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>47419</v>
+        <v>47297</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15402,7 +15458,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>47450</v>
+        <v>47327</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15420,7 +15476,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>47480</v>
+        <v>47358</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15438,7 +15494,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>47511</v>
+        <v>47389</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15456,7 +15512,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>47542</v>
+        <v>47419</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15474,7 +15530,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>47570</v>
+        <v>47450</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15492,7 +15548,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>47601</v>
+        <v>47480</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15510,7 +15566,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>47631</v>
+        <v>47511</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15528,7 +15584,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>47662</v>
+        <v>47542</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15546,7 +15602,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>47692</v>
+        <v>47570</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15564,7 +15620,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>47723</v>
+        <v>47601</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15582,7 +15638,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>47754</v>
+        <v>47631</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15600,7 +15656,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>47784</v>
+        <v>47662</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15618,7 +15674,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>47815</v>
+        <v>47692</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15636,7 +15692,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>47845</v>
+        <v>47723</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15654,7 +15710,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>47876</v>
+        <v>47754</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15672,7 +15728,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>47907</v>
+        <v>47784</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15690,7 +15746,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>47935</v>
+        <v>47815</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15708,7 +15764,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>47966</v>
+        <v>47845</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15726,7 +15782,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>47996</v>
+        <v>47876</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15744,7 +15800,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>48027</v>
+        <v>47907</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15762,7 +15818,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>48057</v>
+        <v>47935</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15780,7 +15836,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>48088</v>
+        <v>47966</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15798,7 +15854,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>48119</v>
+        <v>47996</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15816,7 +15872,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>48149</v>
+        <v>48027</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15834,7 +15890,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>48180</v>
+        <v>48057</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15852,7 +15908,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>48210</v>
+        <v>48088</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15870,7 +15926,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>48241</v>
+        <v>48119</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15888,7 +15944,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>48272</v>
+        <v>48149</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15906,7 +15962,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>48301</v>
+        <v>48180</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15924,7 +15980,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>48332</v>
+        <v>48210</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15942,7 +15998,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>48362</v>
+        <v>48241</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15960,7 +16016,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>48393</v>
+        <v>48272</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15978,7 +16034,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>48423</v>
+        <v>48301</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15996,7 +16052,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>48454</v>
+        <v>48332</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16014,7 +16070,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>48485</v>
+        <v>48362</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16032,7 +16088,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>48515</v>
+        <v>48393</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16050,7 +16106,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>48546</v>
+        <v>48423</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16068,7 +16124,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>48576</v>
+        <v>48454</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16086,7 +16142,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>48607</v>
+        <v>48485</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16104,7 +16160,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>48638</v>
+        <v>48515</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16122,7 +16178,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>48666</v>
+        <v>48546</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16137,6 +16193,78 @@
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="40">
+        <v>48576</v>
+      </c>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="40">
+        <v>48607</v>
+      </c>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40">
+        <v>48638</v>
+      </c>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="40">
+        <v>48666</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16248,14 +16376,12 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.53100000000000003</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
